--- a/src/assets/DATA/20-01-2022/BL/4.xlsx
+++ b/src/assets/DATA/20-01-2022/BL/4.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DATA\20-01-2022\BL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F8C66-2402-424B-BF5A-E48037C1266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F7486-612F-4CB4-938D-FE84C9C85AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>reference</t>
   </si>
@@ -142,12 +142,16 @@
   </si>
   <si>
     <t>valide</t>
+  </si>
+  <si>
+    <t>crée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,16 +467,16 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
